--- a/data/trans_camb/P1423-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P1423-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-2.567666500431433</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5.98987279803845</v>
+        <v>5.989872798038452</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>6.59236705612334</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.980961100138479</v>
+        <v>-4.84300766108329</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.250145714178129</v>
+        <v>-4.991535566964419</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.186136573618349</v>
+        <v>2.587538959614602</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.317268472757083</v>
+        <v>3.538321071373012</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.582826933362754</v>
+        <v>1.701464991762732</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>6.194619804341003</v>
+        <v>6.46582994252988</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.00443523652564471</v>
+        <v>-0.1095808161549784</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.240948935175897</v>
+        <v>-0.9768072432446198</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>5.347014246448886</v>
+        <v>5.261896083875436</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4830720692387017</v>
+        <v>0.424945276165</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.09543119856572033</v>
+        <v>0.06831153427765554</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.656026181801717</v>
+        <v>10.14698246078604</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.93986163793044</v>
+        <v>10.11291335152226</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.642537158741472</v>
+        <v>7.817156678016683</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>13.37886484421221</v>
+        <v>13.35909655941667</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.076377841639286</v>
+        <v>4.249240798671214</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.790217410662577</v>
+        <v>2.917122743456369</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>10.36491609025299</v>
+        <v>10.26418950853703</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.3297186882813014</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.7691703738040906</v>
+        <v>0.7691703738040909</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.5812392363277409</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5143235285574654</v>
+        <v>-0.5167253288692878</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.541774037873723</v>
+        <v>-0.5380435889860683</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.2264249435313393</v>
+        <v>0.2631940360879392</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.2471862378400441</v>
+        <v>0.260107065705994</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1197717204441869</v>
+        <v>0.1281226495931047</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4821582821325279</v>
+        <v>0.469665543642236</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-1.24509146274426e-05</v>
+        <v>-0.01158222575981542</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1076851798805963</v>
+        <v>-0.08967493917663384</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.4888483153478971</v>
+        <v>0.4570832819467183</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.09308524704674324</v>
+        <v>0.06642608553513217</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.02306582151324928</v>
+        <v>0.01882983437658516</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.497203639083501</v>
+        <v>1.614697679112762</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.012355365849676</v>
+        <v>1.009530251158149</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8028812146963333</v>
+        <v>0.7845813589922546</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.357451974725751</v>
+        <v>1.324235884955777</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4627659763610459</v>
+        <v>0.4749470942755541</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3228216631796937</v>
+        <v>0.3303723649094655</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.175706547542139</v>
+        <v>1.13802909798212</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>0.5494988723927328</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>5.37996953930901</v>
+        <v>5.379969539309013</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>1.913517714402781</v>
@@ -878,7 +878,7 @@
         <v>0.6246746251489645</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>4.321772938343078</v>
+        <v>4.321772938343076</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.03619854787833313</v>
+        <v>-0.1006818225355534</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.9009473778462278</v>
+        <v>-0.9023483660221882</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.052311284438856</v>
+        <v>1.062715580749983</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.193966264718742</v>
+        <v>-0.2986282700748614</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.592224321874512</v>
+        <v>-1.804717347568729</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.168403680729404</v>
+        <v>2.773808772587009</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4346810666943032</v>
+        <v>0.5512559136608283</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.5793616698929889</v>
+        <v>-0.8270064200712964</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.833903817325031</v>
+        <v>2.951344300808677</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.181879912507703</v>
+        <v>3.076172411520652</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.844830624065503</v>
+        <v>1.970239235056397</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.41826940816426</v>
+        <v>4.497094808223703</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.523268104545116</v>
+        <v>4.291290676521566</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.159184993216729</v>
+        <v>2.852967960933848</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.72422190181979</v>
+        <v>7.669009675920169</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.39101193078403</v>
+        <v>3.505755832555468</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.117403625016006</v>
+        <v>1.849840476727436</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.806510975855154</v>
+        <v>5.899939125427156</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.173744148303489</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1.147621632498763</v>
+        <v>1.147621632498762</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.2840052060106633</v>
@@ -974,7 +974,7 @@
         <v>0.07723405893140123</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7561742258702239</v>
+        <v>0.7561742258702242</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.4079703415678528</v>
@@ -983,7 +983,7 @@
         <v>0.1331833608189685</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.9214208828920185</v>
+        <v>0.9214208828920182</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.03103389915188307</v>
+        <v>-0.06281082441594697</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3470459925218086</v>
+        <v>-0.3253165820285994</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.2826659296773898</v>
+        <v>0.3560529340684708</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.02282216072942371</v>
+        <v>-0.0319029425692787</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1962934322193004</v>
+        <v>-0.2147347480003891</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3653289984100224</v>
+        <v>0.3330413759357668</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08393588211940352</v>
+        <v>0.09923224383094376</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1191324659894592</v>
+        <v>-0.1493449263215547</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.5078434770783642</v>
+        <v>0.5373343018311534</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.877657072669743</v>
+        <v>1.797876964431623</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.076062903860635</v>
+        <v>1.139814720003035</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.642556438544848</v>
+        <v>2.677605701629831</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.7546384902584331</v>
+        <v>0.7355137226650635</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5485267157959735</v>
+        <v>0.4819414106265567</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.34160983819783</v>
+        <v>1.346355608958989</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8010873840368662</v>
+        <v>0.8666296567179856</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5012692222798906</v>
+        <v>0.4518035608497634</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.422106588883113</v>
+        <v>1.448630616525733</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>1.660008778839805</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>4.985239075351636</v>
+        <v>4.985239075351637</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>2.786631850239243</v>
@@ -1092,7 +1092,7 @@
         <v>1.079873262293793</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>3.980438319157321</v>
+        <v>3.980438319157323</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7133891424716248</v>
+        <v>0.8319985294499547</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.7930034319296511</v>
+        <v>-0.674581724553003</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.459160271107941</v>
+        <v>1.460009688861926</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.022813471020388</v>
+        <v>0.7261358589677736</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.9014868714552935</v>
+        <v>-0.519260445382497</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.86429487380206</v>
+        <v>2.660495957341793</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.406892007281041</v>
+        <v>1.295667892681366</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.1933010227506194</v>
+        <v>-0.3438966793623444</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.653291946668813</v>
+        <v>2.631425745718662</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.809055465423892</v>
+        <v>3.873485446617779</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.847300181084606</v>
+        <v>1.742031562386125</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.444023437995956</v>
+        <v>4.252633353508613</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.523093373972135</v>
+        <v>5.495295667216864</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.052582904163293</v>
+        <v>4.152479040126564</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.135998279188479</v>
+        <v>7.049339486206714</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.284329375646202</v>
+        <v>4.15527543376785</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.493735094688942</v>
+        <v>2.399975983410362</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.298095391460726</v>
+        <v>5.326245518981941</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.3290480429272924</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9881774013361534</v>
+        <v>0.9881774013361537</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.8507367376732371</v>
@@ -1197,7 +1197,7 @@
         <v>0.3296767946528367</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1.215196442206284</v>
+        <v>1.215196442206285</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.2605541360440023</v>
+        <v>0.3150680829283212</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3716916176116818</v>
+        <v>-0.3267099017199217</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.5582880979115202</v>
+        <v>0.6300601787762077</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.1311669316266589</v>
+        <v>0.111288323096533</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1498126737494923</v>
+        <v>-0.1185657869453614</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4735884241727936</v>
+        <v>0.4568380856098188</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.356005155270248</v>
+        <v>0.3277070614831445</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.04718294764231507</v>
+        <v>-0.08970530273824347</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.6715597781139493</v>
+        <v>0.6693550709425241</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.917544494738146</v>
+        <v>3.167477397733325</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.526856902887508</v>
+        <v>1.533527689297212</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3.382578924942218</v>
+        <v>3.557461666207978</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.313380047401026</v>
+        <v>1.351567716140727</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.000380766433217</v>
+        <v>1.023778887389111</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.789310832369296</v>
+        <v>1.757408600257878</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.523622566783134</v>
+        <v>1.531127290626057</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.8819123146168886</v>
+        <v>0.8496409379047959</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.927912790810294</v>
+        <v>2.013297438709576</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.715363101838395</v>
+        <v>-1.59538890907902</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.384730892401867</v>
+        <v>-2.64702364644585</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4208417680522723</v>
+        <v>0.3547182798300754</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.910612545929125</v>
+        <v>-2.878358045211024</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.906057384595714</v>
+        <v>-4.178098387298474</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.115909732875096</v>
+        <v>-1.022251834723712</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.323701611466931</v>
+        <v>-1.262105364851092</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.155394282228088</v>
+        <v>-2.347107629499067</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.6387169727537786</v>
+        <v>0.7362535254858853</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.245050757769443</v>
+        <v>2.34247165555578</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.060477165031769</v>
+        <v>0.9722743600585069</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.06617379799131</v>
+        <v>4.137393287001482</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.208662722858834</v>
+        <v>4.176569498324249</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.999871078133961</v>
+        <v>2.971037946395922</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.090556325839031</v>
+        <v>5.104025686860001</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.511915713921612</v>
+        <v>2.409953279631809</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.498632061070462</v>
+        <v>1.513333466696179</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.166628591760662</v>
+        <v>4.242514251112788</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5674065328210363</v>
+        <v>-0.5664644387777701</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.7940996198588094</v>
+        <v>-0.8456832457939779</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.08175259746305416</v>
+        <v>0.02024220707635761</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3723319877293998</v>
+        <v>-0.3628267267548362</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4764857518970691</v>
+        <v>-0.5043643025985792</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1345557234817487</v>
+        <v>-0.1271715784121791</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2855698737063853</v>
+        <v>-0.277776940934981</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4669262505724952</v>
+        <v>-0.4689569290938562</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1190214544448821</v>
+        <v>0.1192333509416544</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.963970941601947</v>
+        <v>1.827791722382389</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.897438612588766</v>
+        <v>1.055703043390268</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>3.23531908894173</v>
+        <v>3.212804165281927</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.031822507224585</v>
+        <v>1.11006152803183</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.8278088892759278</v>
+        <v>0.769894118671629</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.374901241474687</v>
+        <v>1.285690387162473</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9390794732212387</v>
+        <v>0.8561624154182017</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5614004203907792</v>
+        <v>0.5150534651145686</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.570592819535935</v>
+        <v>1.548393350917909</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>0.1605441513909758</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2.860275096361991</v>
+        <v>2.860275096361992</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>3.824100317885137</v>
@@ -1520,7 +1520,7 @@
         <v>1.42592584368303</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>3.832088691900841</v>
+        <v>3.832088691900842</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1769716876029279</v>
+        <v>0.1211619453897024</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.6961540811681776</v>
+        <v>-0.7716167123417643</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.878122220987737</v>
+        <v>1.785103234809378</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.348061968319675</v>
+        <v>2.330934327408015</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.171589154927364</v>
+        <v>1.174589239146291</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>3.325957290871355</v>
+        <v>3.395367339014403</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.672930982646015</v>
+        <v>1.65015324851342</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.5907234170246458</v>
+        <v>0.5562637621411614</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>3.002981043164639</v>
+        <v>3.048218361635335</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.149947590482882</v>
+        <v>2.129294495890337</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.043173628052696</v>
+        <v>0.9872329255844917</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.85032829076687</v>
+        <v>3.870381007740965</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.080273947427679</v>
+        <v>5.210374770798016</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.916019659820563</v>
+        <v>4.026817289867921</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>6.019585401276566</v>
+        <v>5.988950944085052</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.364665916282788</v>
+        <v>3.379129738905713</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.250405330989309</v>
+        <v>2.205901143927615</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>4.646150157349692</v>
+        <v>4.623267465791635</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.0523115098213818</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.9319885371022277</v>
+        <v>0.931988537102228</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.5066364440672836</v>
@@ -1625,7 +1625,7 @@
         <v>0.2671625880280789</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.7179831525018231</v>
+        <v>0.7179831525018233</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.04502156415315232</v>
+        <v>0.02128344747119795</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1956285152934773</v>
+        <v>-0.2206318071727954</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.5182646832244056</v>
+        <v>0.5060813194720476</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.2795249861914148</v>
+        <v>0.2773592700411477</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1384423945366705</v>
+        <v>0.1452613488793103</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3905436655120491</v>
+        <v>0.4096845772919428</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2885309234369727</v>
+        <v>0.2793187850959577</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.09707897707606949</v>
+        <v>0.09403078422107547</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.5130246649580268</v>
+        <v>0.5184593918661785</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.7967647109206335</v>
+        <v>0.7848324669343626</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3988739578886</v>
+        <v>0.3786662133850459</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.460712701169556</v>
+        <v>1.460196995330128</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.7180738208276597</v>
+        <v>0.7469842177690346</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.5620673434159617</v>
+        <v>0.5879154527853</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.865301201085026</v>
+        <v>0.8686711493347783</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6823862130379253</v>
+        <v>0.6601486979205876</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.4583666026949199</v>
+        <v>0.4366867705075644</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.9338886325045683</v>
+        <v>0.9263383357556708</v>
       </c>
     </row>
     <row r="34">
